--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\@Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E6FB2B-64C9-425D-803C-9C6A31EBB78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0E5CCC-9C42-4E0F-8DFB-C0137F5980F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22380" yWindow="-11790" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>install opencv</t>
   </si>
@@ -79,6 +79,12 @@
   <si>
     <t>animal measure</t>
   </si>
+  <si>
+    <t>Ven 24 Jan</t>
+  </si>
+  <si>
+    <t>billboard python</t>
+  </si>
 </sst>
 </file>
 
@@ -113,17 +119,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2252,41 +2263,47 @@
   <dimension ref="A3:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.9296875" customWidth="1"/>
-    <col min="3" max="3" width="14.06640625" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.53125" customWidth="1"/>
-    <col min="6" max="6" width="11.06640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1"/>
+    <col min="2" max="2" width="12.9296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.53125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.06640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -2317,292 +2334,306 @@
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>6.5972222222222224E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>5.347222222222222E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>5.8333333333333327E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>7.3611111111111113E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>4.5138888888888888E-2</v>
       </c>
+      <c r="K6" s="3">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>9.2361111111111116E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.11319444444444444</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>2.9861111111111113E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.12986111111111112</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>3.125E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>3.125E-2</v>
       </c>
+      <c r="J7" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>0.14652777777777778</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3">
         <v>0.1173611111111111</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="3">
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <f>SUM(B6:B9)</f>
         <v>0.15902777777777777</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <f>SUM(C6:C9)</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <f>SUM(D6:D9)</f>
         <v>8.8194444444444436E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <f>SUM(E6:E9)</f>
         <v>0.15069444444444446</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <f>SUM(F6:F9)</f>
         <v>0.2361111111111111</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <f t="shared" ref="G10:L10" si="0">SUM(G6:G9)</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <f t="shared" si="0"/>
         <v>0.15902777777777777</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>7.3611111111111113E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="K10" s="1">
+        <v>8.6805555555555552E-2</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <f>B10</f>
         <v>0.15902777777777777</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1">
+      <c r="E12" s="4"/>
+      <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3">
         <f t="shared" ref="G12:L12" si="1">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="1">
+      <c r="I12" s="4"/>
+      <c r="J12" s="5">
+        <f>SUM(J10:K10)</f>
+        <v>0.23541666666666666</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3">
         <f t="shared" si="1"/>
-        <v>4.5138888888888888E-2</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="1"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="1"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21">
+      <c r="B21" s="1">
         <v>3128</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22">
+      <c r="B22" s="1">
         <v>2427</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1896</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1522</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1249</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1038</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27">
+      <c r="B27" s="1">
         <v>876</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28">
+      <c r="B28" s="1">
         <v>750</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B29">
+      <c r="B29" s="1">
         <v>657</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B30">
+      <c r="B30" s="1">
         <v>439</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31">
+      <c r="B31" s="1">
         <v>262</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40">
+      <c r="B40" s="1">
         <v>3269</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41">
+      <c r="B41" s="1">
         <v>2271</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42">
+      <c r="B42" s="1">
         <v>1700</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43">
+      <c r="B43" s="1">
         <v>1325</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B44">
+      <c r="B44" s="1">
         <v>1051</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B45">
+      <c r="B45" s="1">
         <v>856</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B46">
+      <c r="B46" s="1">
         <v>713</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B47">
+      <c r="B47" s="1">
         <v>606</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B48">
+      <c r="B48" s="1">
         <v>535</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49">
+      <c r="B49" s="1">
         <v>453</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50">
+      <c r="B50" s="1">
         <v>278</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0E5CCC-9C42-4E0F-8DFB-C0137F5980F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761121EA-CF5B-45E7-844F-675CA9E8F48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22380" yWindow="-11790" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16875" windowHeight="10523" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>install opencv</t>
   </si>
@@ -85,6 +85,15 @@
   <si>
     <t>billboard python</t>
   </si>
+  <si>
+    <t>Lun 27 Jan</t>
+  </si>
+  <si>
+    <t>Mar 28 Jan</t>
+  </si>
+  <si>
+    <t>billboard orientation</t>
+  </si>
 </sst>
 </file>
 
@@ -119,13 +128,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2260,10 +2278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC63FB7-B33A-44EE-B739-01B89B18E70B}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A3:L50"/>
+  <dimension ref="A3:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2277,36 +2295,42 @@
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2340,8 +2364,14 @@
       <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2375,8 +2405,14 @@
       <c r="L6" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>9.2361111111111116E-2</v>
       </c>
@@ -2401,8 +2437,17 @@
       <c r="J7" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L7" s="4">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="N7" s="6">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2417,11 +2462,11 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2467,10 +2512,32 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>0.17916666666666664</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" ref="M10:P10" si="1">SUM(M6:M9)</f>
+        <v>0.17291666666666666</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f>B10</f>
         <v>0.15902777777777777</v>
@@ -2479,41 +2546,57 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12:L12" si="1">G10</f>
+        <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="8">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5">
+      <c r="I12" s="7"/>
+      <c r="J12" s="8">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="3">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0.17916666666666664</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" ref="M12:P12" si="3">M10</f>
+        <v>0.17291666666666666</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10416666666666666</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
@@ -2636,6 +2719,9 @@
     <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N3 G3" twoDigitTextYear="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761121EA-CF5B-45E7-844F-675CA9E8F48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E17522-F325-4CCE-9BFF-01090D53E984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="16875" windowHeight="10523" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>install opencv</t>
   </si>
@@ -94,6 +94,15 @@
   <si>
     <t>billboard orientation</t>
   </si>
+  <si>
+    <t>Mer 29 Jan</t>
+  </si>
+  <si>
+    <t>get images</t>
+  </si>
+  <si>
+    <t>skeleton tracking search</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,6 +152,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2280,8 +2295,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A3:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2292,7 +2307,9 @@
     <col min="4" max="4" width="11.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.53125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.06640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.6640625" style="1"/>
+    <col min="7" max="15" width="10.6640625" style="1"/>
+    <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -2302,24 +2319,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2329,8 +2346,11 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2369,6 +2389,12 @@
       </c>
       <c r="N5" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -2409,6 +2435,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="N6" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O6" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2461,6 +2490,9 @@
       <c r="H8" s="3">
         <v>6.9444444444444434E-2</v>
       </c>
+      <c r="N8" s="7">
+        <v>0.12847222222222224</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
@@ -2520,11 +2552,11 @@
       </c>
       <c r="N10" s="6">
         <f t="shared" si="1"/>
-        <v>0.10416666666666666</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="1"/>
@@ -2546,11 +2578,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2559,16 +2591,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="10">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8">
+      <c r="I12" s="9"/>
+      <c r="J12" s="10">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -2579,11 +2611,11 @@
       </c>
       <c r="N12" s="6">
         <f t="shared" si="3"/>
-        <v>0.10416666666666666</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="3"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E17522-F325-4CCE-9BFF-01090D53E984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C01DA-7A5A-4D7E-96C4-4966735BAA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16875" windowHeight="10523" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
+    <workbookView xWindow="-6960" yWindow="-11580" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>install opencv</t>
   </si>
@@ -101,7 +101,13 @@
     <t>get images</t>
   </si>
   <si>
-    <t>skeleton tracking search</t>
+    <t>skeleton research</t>
+  </si>
+  <si>
+    <t>Jeu 30 Jan</t>
+  </si>
+  <si>
+    <t>skeleton c++</t>
   </si>
 </sst>
 </file>
@@ -137,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2293,7 +2302,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC63FB7-B33A-44EE-B739-01B89B18E70B}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A3:P50"/>
+  <dimension ref="A3:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
@@ -2312,31 +2321,31 @@
     <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2349,8 +2358,11 @@
       <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2396,8 +2408,11 @@
       <c r="P5" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2440,8 +2455,11 @@
       <c r="O6" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P6" s="9">
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>9.2361111111111116E-2</v>
       </c>
@@ -2476,7 +2494,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2494,11 +2512,11 @@
         <v>0.12847222222222224</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2560,16 +2578,16 @@
       </c>
       <c r="P10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f>B10</f>
         <v>0.15902777777777777</v>
@@ -2578,11 +2596,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2591,16 +2609,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="11">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10">
+      <c r="I12" s="10"/>
+      <c r="J12" s="11">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -2619,16 +2637,16 @@
       </c>
       <c r="P12" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C01DA-7A5A-4D7E-96C4-4966735BAA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F501E-6FAB-416D-AB46-714253A64048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6960" yWindow="-11580" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2305,7 +2308,7 @@
   <dimension ref="A3:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2328,24 +2331,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2457,6 +2460,9 @@
       </c>
       <c r="P6" s="9">
         <v>0.15277777777777776</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2.361111111111111E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -2596,11 +2602,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="12">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2609,16 +2615,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11">
+      <c r="I12" s="11"/>
+      <c r="J12" s="12">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F501E-6FAB-416D-AB46-714253A64048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF08531-3AE3-456B-8BF4-7B7FD842B8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6960" yWindow="-11580" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2305,10 +2308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC63FB7-B33A-44EE-B739-01B89B18E70B}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A3:Q50"/>
+  <dimension ref="A3:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2324,31 +2327,31 @@
     <col min="17" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2358,14 +2361,15 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="13" t="s">
         <v>20</v>
       </c>
+      <c r="P3" s="12"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>6.6666666666666666E-2</v>
       </c>
@@ -2459,13 +2463,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="P6" s="9">
-        <v>0.15277777777777776</v>
+        <v>0.15416666666666667</v>
       </c>
       <c r="Q6" s="10">
         <v>2.361111111111111E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>9.2361111111111116E-2</v>
       </c>
@@ -2499,8 +2503,11 @@
       <c r="N7" s="6">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q7" s="11">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2518,11 +2525,11 @@
         <v>0.12847222222222224</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2571,7 +2578,7 @@
         <v>0.17916666666666664</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" ref="M10:P10" si="1">SUM(M6:M9)</f>
+        <f t="shared" ref="M10:AT10" si="1">SUM(M6:M9)</f>
         <v>0.17291666666666666</v>
       </c>
       <c r="N10" s="6">
@@ -2584,16 +2591,136 @@
       </c>
       <c r="P10" s="6">
         <f t="shared" si="1"/>
-        <v>0.15277777777777776</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="Q10" s="11">
+        <f t="shared" si="1"/>
+        <v>7.5694444444444453E-2</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.45">
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f>B10</f>
         <v>0.15902777777777777</v>
@@ -2602,11 +2729,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2615,44 +2742,161 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="13">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12">
+      <c r="I12" s="12"/>
+      <c r="J12" s="13">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="11"/>
+      <c r="K12" s="12"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" ref="M12:P12" si="3">M10</f>
+        <f t="shared" ref="M12:AT12" si="3">M10</f>
         <v>0.17291666666666666</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="13">
+        <f>SUM(O10:P10)</f>
+        <v>0.19583333333333333</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11">
         <f t="shared" si="3"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="P12" s="6">
+        <v>7.5694444444444453E-2</v>
+      </c>
+      <c r="R12" s="11">
         <f t="shared" si="3"/>
-        <v>0.15277777777777776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
@@ -2766,7 +3010,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="H12:I12"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF08531-3AE3-456B-8BF4-7B7FD842B8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AF9310-6B7A-4930-B376-99E39B2D9086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6960" yWindow="-11580" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
+    <workbookView xWindow="-4620" yWindow="-10395" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>install opencv</t>
   </si>
@@ -109,6 +109,12 @@
   <si>
     <t>skeleton c++</t>
   </si>
+  <si>
+    <t>Ven 31 Jan</t>
+  </si>
+  <si>
+    <t>blender</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,10 +184,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2311,7 +2323,7 @@
   <dimension ref="A3:AT50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2334,24 +2346,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2361,13 +2373,16 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="12"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
@@ -2417,6 +2432,12 @@
       </c>
       <c r="Q5" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
@@ -2467,6 +2488,9 @@
       </c>
       <c r="Q6" s="10">
         <v>2.361111111111111E-2</v>
+      </c>
+      <c r="R6" s="13">
+        <v>5.9027777777777783E-2</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
@@ -2524,6 +2548,9 @@
       <c r="N8" s="7">
         <v>0.12847222222222224</v>
       </c>
+      <c r="Q8" s="12">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
@@ -2595,11 +2622,11 @@
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="1"/>
-        <v>7.5694444444444453E-2</v>
+        <v>0.20069444444444445</v>
       </c>
       <c r="R10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9027777777777783E-2</v>
       </c>
       <c r="S10" s="11">
         <f t="shared" si="1"/>
@@ -2729,11 +2756,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2742,16 +2769,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13">
+      <c r="I12" s="15"/>
+      <c r="J12" s="14">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -2764,18 +2791,18 @@
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="14">
         <f>SUM(O10:P10)</f>
         <v>0.19583333333333333</v>
       </c>
-      <c r="P12" s="12"/>
+      <c r="P12" s="15"/>
       <c r="Q12" s="11">
         <f t="shared" si="3"/>
-        <v>7.5694444444444453E-2</v>
+        <v>0.20069444444444445</v>
       </c>
       <c r="R12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.9027777777777783E-2</v>
       </c>
       <c r="S12" s="11">
         <f t="shared" si="3"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AF9310-6B7A-4930-B376-99E39B2D9086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1867204B-5543-483F-94B2-FBE71F92B818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4620" yWindow="-10395" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>install opencv</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Ven 31 Jan</t>
   </si>
   <si>
-    <t>blender</t>
+    <t>discussion</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +164,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2323,7 +2326,7 @@
   <dimension ref="A3:AT50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="R3" sqref="R3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2346,24 +2349,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2373,16 +2376,18 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="15"/>
+      <c r="P3" s="16"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="16" t="s">
         <v>25</v>
       </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
@@ -2437,6 +2442,9 @@
         <v>24</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2491,6 +2499,12 @@
       </c>
       <c r="R6" s="13">
         <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="S6" s="14">
+        <v>3.125E-2</v>
+      </c>
+      <c r="T6" s="14">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
@@ -2630,11 +2644,11 @@
       </c>
       <c r="S10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="T10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="1"/>
@@ -2756,11 +2770,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="15">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2769,16 +2783,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="15">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="14">
+      <c r="I12" s="16"/>
+      <c r="J12" s="15">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -2791,27 +2805,21 @@
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="15">
         <f>SUM(O10:P10)</f>
         <v>0.19583333333333333</v>
       </c>
-      <c r="P12" s="15"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>0.20069444444444445</v>
       </c>
-      <c r="R12" s="11">
-        <f t="shared" si="3"/>
-        <v>5.9027777777777783E-2</v>
-      </c>
-      <c r="S12" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="R12" s="15">
+        <f>SUM(R10:T10)</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
       <c r="U12" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3037,7 +3045,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="D3:E3"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1867204B-5543-483F-94B2-FBE71F92B818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B893DE-4019-4722-BE42-27BF8C1789DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4620" yWindow="-10395" windowWidth="16875" windowHeight="10530" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="16875" windowHeight="10522" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>install opencv</t>
   </si>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t>discussion</t>
+  </si>
+  <si>
+    <t>Lun 03 Feb</t>
+  </si>
+  <si>
+    <t>3D  morphable skeleton</t>
+  </si>
+  <si>
+    <t>Mar 04 Feb</t>
+  </si>
+  <si>
+    <t>Mer 05 Feb</t>
+  </si>
+  <si>
+    <t>Jeu 06 Feb</t>
+  </si>
+  <si>
+    <t>quaternion</t>
+  </si>
+  <si>
+    <t>Ven 07 Feb</t>
+  </si>
+  <si>
+    <t>3D skeleton</t>
   </si>
 </sst>
 </file>
@@ -149,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +188,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2325,8 +2367,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A3:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:T3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2339,7 +2381,9 @@
     <col min="6" max="6" width="11.06640625" style="1" customWidth="1"/>
     <col min="7" max="15" width="10.6640625" style="1"/>
     <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.6640625" style="1"/>
+    <col min="17" max="20" width="10.6640625" style="1"/>
+    <col min="21" max="21" width="14.265625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:46" x14ac:dyDescent="0.45">
@@ -2349,24 +2393,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="16"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2376,18 +2420,33 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="16"/>
+      <c r="P3" s="22"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
@@ -2446,6 +2505,21 @@
       </c>
       <c r="T5" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
@@ -2506,6 +2580,18 @@
       <c r="T6" s="14">
         <v>6.25E-2</v>
       </c>
+      <c r="U6" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V6" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="W6" s="18">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="X6" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
@@ -2543,6 +2629,18 @@
       </c>
       <c r="Q7" s="11">
         <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="V7" s="17">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="X7" s="20">
+        <v>0.1451388888888889</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.45">
@@ -2652,19 +2750,19 @@
       </c>
       <c r="U10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18194444444444444</v>
       </c>
       <c r="V10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16805555555555554</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18680555555555556</v>
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="1"/>
@@ -2770,11 +2868,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="21">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2783,16 +2881,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="21">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="15">
+      <c r="I12" s="22"/>
+      <c r="J12" s="21">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -2805,36 +2903,36 @@
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="21">
         <f>SUM(O10:P10)</f>
         <v>0.19583333333333333</v>
       </c>
-      <c r="P12" s="16"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>0.20069444444444445</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="21">
         <f>SUM(R10:T10)</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
       <c r="U12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.18194444444444444</v>
       </c>
       <c r="V12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="W12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16805555555555554</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.18680555555555556</v>
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="3"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B893DE-4019-4722-BE42-27BF8C1789DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E356C786-5B94-4B47-8856-A6D4CD1D9556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="16875" windowHeight="10522" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16875" windowHeight="10522" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>install opencv</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>3D skeleton</t>
+  </si>
+  <si>
+    <t>Lun 10 Feb</t>
+  </si>
+  <si>
+    <t>rotation</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +194,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2367,8 +2382,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A3:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2393,24 +2408,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2420,18 +2435,18 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
       <c r="U3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2447,6 +2462,9 @@
       <c r="Y3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Z3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
@@ -2520,6 +2538,9 @@
       </c>
       <c r="Y5" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
@@ -2592,6 +2613,12 @@
       <c r="X6" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="Y6" s="21">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
@@ -2641,6 +2668,12 @@
       </c>
       <c r="X7" s="20">
         <v>0.1451388888888889</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="Z7" s="23">
+        <v>0.14791666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.45">
@@ -2766,11 +2799,11 @@
       </c>
       <c r="Y10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2076388888888889</v>
       </c>
       <c r="Z10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="1"/>
@@ -2868,11 +2901,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="24">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2881,16 +2914,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="24">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21">
+      <c r="I12" s="25"/>
+      <c r="J12" s="24">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -2903,21 +2936,21 @@
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="24">
         <f>SUM(O10:P10)</f>
         <v>0.19583333333333333</v>
       </c>
-      <c r="P12" s="22"/>
+      <c r="P12" s="25"/>
       <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>0.20069444444444445</v>
       </c>
-      <c r="R12" s="21">
+      <c r="R12" s="24">
         <f>SUM(R10:T10)</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
       <c r="U12" s="11">
         <f t="shared" si="3"/>
         <v>0.18194444444444444</v>
@@ -2936,11 +2969,11 @@
       </c>
       <c r="Y12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.2076388888888889</v>
       </c>
       <c r="Z12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="3"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E356C786-5B94-4B47-8856-A6D4CD1D9556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91220EEB-EAF6-4EFA-AD01-91939D1C718A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16875" windowHeight="10522" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16875" windowHeight="10523" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>install opencv</t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>rotation</t>
+  </si>
+  <si>
+    <t>Mar 11 Feb</t>
+  </si>
+  <si>
+    <t>simplify skeleton</t>
+  </si>
+  <si>
+    <t>Mer 12 Feb</t>
+  </si>
+  <si>
+    <t>map skeleton</t>
+  </si>
+  <si>
+    <t>Jeu 13 Feb</t>
+  </si>
+  <si>
+    <t>angle constraints</t>
   </si>
 </sst>
 </file>
@@ -179,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +212,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2382,8 +2409,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A3:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2408,24 +2435,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2435,18 +2462,18 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="25"/>
+      <c r="P3" s="28"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
       <c r="U3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2465,6 +2492,15 @@
       <c r="Z3" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AA3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
@@ -2541,6 +2577,15 @@
       </c>
       <c r="Z5" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
@@ -2619,6 +2664,12 @@
       <c r="Z6" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="AA6" s="24">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>5.5555555555555552E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
@@ -2674,6 +2725,12 @@
       </c>
       <c r="Z7" s="23">
         <v>0.14791666666666667</v>
+      </c>
+      <c r="AA7" s="24">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>0.17847222222222223</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.45">
@@ -2807,11 +2864,11 @@
       </c>
       <c r="AA10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16319444444444445</v>
       </c>
       <c r="AB10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.23402777777777778</v>
       </c>
       <c r="AC10" s="11">
         <f t="shared" si="1"/>
@@ -2901,11 +2958,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="27">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="28"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2914,16 +2971,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="27">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24">
+      <c r="I12" s="28"/>
+      <c r="J12" s="27">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -2936,21 +2993,21 @@
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="27">
         <f>SUM(O10:P10)</f>
         <v>0.19583333333333333</v>
       </c>
-      <c r="P12" s="25"/>
+      <c r="P12" s="28"/>
       <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>0.20069444444444445</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="27">
         <f>SUM(R10:T10)</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="11">
         <f t="shared" si="3"/>
         <v>0.18194444444444444</v>
@@ -2977,11 +3034,11 @@
       </c>
       <c r="AA12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16319444444444445</v>
       </c>
       <c r="AB12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.23402777777777778</v>
       </c>
       <c r="AC12" s="11">
         <f t="shared" si="3"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91220EEB-EAF6-4EFA-AD01-91939D1C718A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720E02E-AC50-49E8-8D76-15039B0D9864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="16875" windowHeight="10523" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>install opencv</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>angle constraints</t>
+  </si>
+  <si>
+    <t>optimisation</t>
+  </si>
+  <si>
+    <t>Ven 14 Feb</t>
+  </si>
+  <si>
+    <t>Lun 17 Feb</t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +221,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2409,8 +2433,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A3:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="AB2" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2435,24 +2459,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="28"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2462,18 +2486,18 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="28"/>
+      <c r="P3" s="33"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
       <c r="U3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2498,8 +2522,15 @@
       <c r="AB3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="33" t="s">
         <v>41</v>
+      </c>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2587,6 +2618,15 @@
       <c r="AC5" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="AD5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
@@ -2670,6 +2710,18 @@
       <c r="AB6" s="25">
         <v>5.5555555555555552E-2</v>
       </c>
+      <c r="AC6" s="27">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="AD6" s="28">
+        <v>0.125</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF6" s="30">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
@@ -2731,6 +2783,12 @@
       </c>
       <c r="AB7" s="26">
         <v>0.17847222222222223</v>
+      </c>
+      <c r="AE7" s="29">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="AF7" s="31">
+        <v>0.18402777777777779</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.45">
@@ -2872,19 +2930,19 @@
       </c>
       <c r="AC10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="AD10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AE10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="AF10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="AG10" s="11">
         <f t="shared" si="1"/>
@@ -2958,11 +3016,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="32">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -2971,16 +3029,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="32">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="27">
+      <c r="I12" s="33"/>
+      <c r="J12" s="32">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="28"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -2993,21 +3051,21 @@
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="32">
         <f>SUM(O10:P10)</f>
         <v>0.19583333333333333</v>
       </c>
-      <c r="P12" s="28"/>
+      <c r="P12" s="33"/>
       <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>0.20069444444444445</v>
       </c>
-      <c r="R12" s="27">
+      <c r="R12" s="32">
         <f>SUM(R10:T10)</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
       <c r="U12" s="11">
         <f t="shared" si="3"/>
         <v>0.18194444444444444</v>
@@ -3040,21 +3098,18 @@
         <f t="shared" si="3"/>
         <v>0.23402777777777778</v>
       </c>
-      <c r="AC12" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="AC12" s="32">
+        <f>SUM(AC10:AD10)</f>
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="AD12" s="33"/>
       <c r="AE12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="AF12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="AG12" s="11">
         <f t="shared" si="3"/>
@@ -3113,6 +3168,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
+      <c r="B13" s="28"/>
+    </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
     </row>
@@ -3233,17 +3291,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O3:P3"/>
+  <mergeCells count="12">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720E02E-AC50-49E8-8D76-15039B0D9864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B1C42F-A8C0-428A-809A-552F849EADDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16875" windowHeight="10523" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>install opencv</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>Lun 17 Feb</t>
+  </si>
+  <si>
+    <t>Mar 18 Feb</t>
+  </si>
+  <si>
+    <t>higher legs</t>
+  </si>
+  <si>
+    <t>Mer 19 Feb</t>
+  </si>
+  <si>
+    <t>adapte to other images</t>
+  </si>
+  <si>
+    <t>Jeu 20 Feb</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +236,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2434,7 +2461,7 @@
   <dimension ref="A3:AT50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB2" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2449,7 +2476,9 @@
     <col min="16" max="16" width="12.6640625" style="1" customWidth="1"/>
     <col min="17" max="20" width="10.6640625" style="1"/>
     <col min="21" max="21" width="14.265625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.6640625" style="1"/>
+    <col min="22" max="33" width="10.6640625" style="1"/>
+    <col min="34" max="34" width="12.265625" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:46" x14ac:dyDescent="0.45">
@@ -2459,24 +2488,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="I3" s="37"/>
+      <c r="J3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="33"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2486,18 +2515,18 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="33"/>
+      <c r="P3" s="37"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
       <c r="U3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2522,15 +2551,24 @@
       <c r="AB3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="33"/>
+      <c r="AD3" s="37"/>
       <c r="AE3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2627,6 +2665,15 @@
       <c r="AF5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AG5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
@@ -2722,6 +2769,15 @@
       <c r="AF6" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="AG6" s="32">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AH6" s="34">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AI6" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
@@ -2789,6 +2845,15 @@
       </c>
       <c r="AF7" s="31">
         <v>0.18402777777777779</v>
+      </c>
+      <c r="AG7" s="33">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AH7" s="34">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AI7" s="35">
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.45">
@@ -2946,15 +3011,15 @@
       </c>
       <c r="AG10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="AH10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="AI10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="AJ10" s="11">
         <f t="shared" si="1"/>
@@ -3016,11 +3081,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="36">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -3029,16 +3094,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="36">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="32">
+      <c r="I12" s="37"/>
+      <c r="J12" s="36">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -3051,21 +3116,21 @@
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="36">
         <f>SUM(O10:P10)</f>
         <v>0.19583333333333333</v>
       </c>
-      <c r="P12" s="33"/>
+      <c r="P12" s="37"/>
       <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>0.20069444444444445</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="36">
         <f>SUM(R10:T10)</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
       <c r="U12" s="11">
         <f t="shared" si="3"/>
         <v>0.18194444444444444</v>
@@ -3098,11 +3163,11 @@
         <f t="shared" si="3"/>
         <v>0.23402777777777778</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="36">
         <f>SUM(AC10:AD10)</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="AD12" s="33"/>
+      <c r="AD12" s="37"/>
       <c r="AE12" s="11">
         <f t="shared" si="3"/>
         <v>0.18333333333333332</v>
@@ -3113,15 +3178,15 @@
       </c>
       <c r="AG12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="AH12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="AI12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.17708333333333331</v>
       </c>
       <c r="AJ12" s="11">
         <f t="shared" si="3"/>

--- a/Documents/temps.xlsx
+++ b/Documents/temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptitg\Documents\Thesis-animal-animation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B1C42F-A8C0-428A-809A-552F849EADDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18CD404-88A8-4C7B-A74D-1F9AF83AA3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="16875" windowHeight="10522" xr2:uid="{454B0C08-6FB4-4BA4-8296-F953A4E05736}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>install opencv</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>Jeu 20 Feb</t>
+  </si>
+  <si>
+    <t>Ven 21 Feb</t>
+  </si>
+  <si>
+    <t>Lun 24 Feb</t>
+  </si>
+  <si>
+    <t>Distance transform</t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,6 +245,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2461,7 +2476,7 @@
   <dimension ref="A3:AT50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AB2" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2488,24 +2503,24 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
@@ -2515,18 +2530,18 @@
       <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="37"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="R3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
       <c r="U3" s="1" t="s">
         <v>27</v>
       </c>
@@ -2551,10 +2566,10 @@
       <c r="AB3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AC3" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AD3" s="37"/>
+      <c r="AD3" s="39"/>
       <c r="AE3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,6 +2584,12 @@
       </c>
       <c r="AI3" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:46" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2674,6 +2695,12 @@
       <c r="AI5" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="AJ5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
@@ -2778,6 +2805,12 @@
       <c r="AI6" s="34">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="AJ6" s="36">
+        <v>3.125E-2</v>
+      </c>
+      <c r="AK6" s="37">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
@@ -2854,6 +2887,12 @@
       </c>
       <c r="AI7" s="35">
         <v>0.13541666666666666</v>
+      </c>
+      <c r="AJ7" s="36">
+        <v>0.125</v>
+      </c>
+      <c r="AK7" s="37">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.45">
@@ -3023,11 +3062,11 @@
       </c>
       <c r="AJ10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="AK10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="AL10" s="11">
         <f t="shared" si="1"/>
@@ -3081,11 +3120,11 @@
         <f>C10</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="38">
         <f>SUM(D10:E10)</f>
         <v>0.2388888888888889</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="3">
         <f>F10</f>
         <v>0.2361111111111111</v>
@@ -3094,16 +3133,16 @@
         <f t="shared" ref="G12:L12" si="2">G10</f>
         <v>0.25416666666666665</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="38">
         <f>SUM(H10:I10)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="36">
+      <c r="I12" s="39"/>
+      <c r="J12" s="38">
         <f>SUM(J10:K10)</f>
         <v>0.23541666666666666</v>
       </c>
-      <c r="K12" s="37"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0.17916666666666664</v>
@@ -3116,21 +3155,21 @@
         <f t="shared" si="3"/>
         <v>0.2326388888888889</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="38">
         <f>SUM(O10:P10)</f>
         <v>0.19583333333333333</v>
       </c>
-      <c r="P12" s="37"/>
+      <c r="P12" s="39"/>
       <c r="Q12" s="11">
         <f t="shared" si="3"/>
         <v>0.20069444444444445</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="38">
         <f>SUM(R10:T10)</f>
         <v>0.15277777777777779</v>
       </c>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="11">
         <f t="shared" si="3"/>
         <v>0.18194444444444444</v>
@@ -3163,11 +3202,11 @@
         <f t="shared" si="3"/>
         <v>0.23402777777777778</v>
       </c>
-      <c r="AC12" s="36">
+      <c r="AC12" s="38">
         <f>SUM(AC10:AD10)</f>
         <v>0.17916666666666667</v>
       </c>
-      <c r="AD12" s="37"/>
+      <c r="AD12" s="39"/>
       <c r="AE12" s="11">
         <f t="shared" si="3"/>
         <v>0.18333333333333332</v>
@@ -3190,11 +3229,11 @@
       </c>
       <c r="AJ12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="AK12" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="AL12" s="11">
         <f t="shared" si="3"/>
